--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/Spring Calculations.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/Spring Calculations.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\Adjustable Spiral Torsion Spring\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FE06241-FFA6-4677-BDF5-A5857FD97536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A335346-8C89-4969-AE12-AA2D483E1E2B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>lever arm mass</t>
   </si>
@@ -100,11 +94,20 @@
   <si>
     <t>expection resting angle</t>
   </si>
+  <si>
+    <t>my new spring</t>
+  </si>
+  <si>
+    <t>arm offset from spring center (my new spring)</t>
+  </si>
+  <si>
+    <t>k = 10.094 Nm/rad</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,12 +162,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -186,6 +183,12 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -204,7 +207,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -218,6 +221,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -295,6 +299,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -386,7 +391,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-00FC-416A-8840-54D92E636669}"/>
             </c:ext>
@@ -400,11 +405,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1191482176"/>
-        <c:axId val="1127608896"/>
+        <c:axId val="173636352"/>
+        <c:axId val="211296832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1191482176"/>
+        <c:axId val="173636352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -450,6 +455,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -458,26 +464,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -516,12 +502,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1127608896"/>
+        <c:crossAx val="211296832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1127608896"/>
+        <c:axId val="211296832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -567,6 +553,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -575,26 +562,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -633,7 +600,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1191482176"/>
+        <c:crossAx val="173636352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -647,14 +614,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -690,7 +657,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -704,6 +671,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -866,7 +834,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1DA0-49E2-99AF-872A1BB96A45}"/>
             </c:ext>
@@ -880,11 +848,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1269880368"/>
-        <c:axId val="1268703424"/>
+        <c:axId val="211298560"/>
+        <c:axId val="211299136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1269880368"/>
+        <c:axId val="211298560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -937,6 +905,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -945,26 +914,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1003,12 +952,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1268703424"/>
+        <c:crossAx val="211299136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1268703424"/>
+        <c:axId val="211299136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,6 +1024,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1083,40 +1033,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1155,7 +1071,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1269880368"/>
+        <c:crossAx val="211298560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1169,14 +1085,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1211,1116 +1127,489 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>my new spring</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14045056867891514"/>
+                  <c:y val="-3.448527267424905E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$16:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.7453292519943295E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9813170079773182E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12217304763960307</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17453292519943295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24434609527920614</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29670597283903605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$16:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.83840165791544086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4383321095815247</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0299150621866908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6082380932301232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1551973284607153</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6866546437648813</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1DA0-49E2-99AF-872A1BB96A45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="137916352"/>
+        <c:axId val="137916928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="137916352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Deflection (rad)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="137916928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="137916928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Torque (Nm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="137916352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2329,13 +1618,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2343,7 +1632,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01BFA875-FEE6-E005-87C1-4AFA2F3BAE19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01BFA875-FEE6-E005-87C1-4AFA2F3BAE19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,13 +1654,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>2276475</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2379,7 +1668,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2977C3E8-25DA-DBE4-89F0-E5EE4D1E97CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2977C3E8-25DA-DBE4-89F0-E5EE4D1E97CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2392,6 +1681,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2977C3E8-25DA-DBE4-89F0-E5EE4D1E97CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2443,7 +1770,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2495,7 +1822,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2689,18 +2016,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4266C955-938E-44DA-A371-DCF44840CDEA}">
-  <dimension ref="A1:I39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2720,16 +2047,16 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2743,20 +2070,20 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>22</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="8">
         <f>RADIANS(G2)</f>
         <v>0.38397243543875248</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="7">
         <f>($B$1+$B$3+F2)*(0.5*$B$2+$B$4)*9.81*COS(RADIANS(G2))/(1000*1000)</f>
         <v>0.7329748581277955</v>
       </c>
@@ -2772,18 +2099,18 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5">
+      <c r="E3" s="11"/>
+      <c r="F3" s="3">
         <v>200</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>23</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="8">
         <f t="shared" ref="H3:H8" si="0">RADIANS(G3)</f>
         <v>0.4014257279586958</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <f t="shared" ref="I3:I8" si="1">($B$1+$B$3+F3)*(0.5*$B$2+$B$4)*9.81*COS(RADIANS(G3))/(1000*1000)</f>
         <v>1.0482652660067904</v>
       </c>
@@ -2798,18 +2125,18 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5">
+      <c r="E4" s="11"/>
+      <c r="F4" s="3">
         <v>500</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>25</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="8">
         <f t="shared" si="0"/>
         <v>0.43633231299858238</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="7">
         <f t="shared" si="1"/>
         <v>1.5055370616461194</v>
       </c>
@@ -2824,69 +2151,78 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5">
+      <c r="E5" s="11"/>
+      <c r="F5" s="3">
         <v>1000</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>29</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <f t="shared" si="0"/>
         <v>0.50614548307835561</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <f t="shared" si="1"/>
         <v>2.2143742880184658</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E6" s="3"/>
-      <c r="F6" s="5">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="3">
         <v>1200</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>30</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <f t="shared" si="0"/>
         <v>0.52359877559829882</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
         <v>2.4942127887482339</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E7" s="3"/>
-      <c r="F7" s="5">
+      <c r="E7" s="11"/>
+      <c r="F7" s="3">
         <v>1500</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>32</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="8">
         <f t="shared" si="0"/>
         <v>0.55850536063818546</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="7">
         <f t="shared" si="1"/>
         <v>2.8854423896323613</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E8" s="3"/>
-      <c r="F8" s="5">
+      <c r="E8" s="11"/>
+      <c r="F8" s="3">
         <v>2000</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>35</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="8">
         <f t="shared" si="0"/>
         <v>0.6108652381980153</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <f t="shared" si="1"/>
         <v>3.5003094669059975</v>
       </c>
@@ -2894,153 +2230,261 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="7"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>0</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>-31</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <f>RADIANS(G10)</f>
         <v>-0.54105206811824214</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="6">
         <f>((($B$1*(0.5*$B$2+$B$5))+(($B$3+F10)*($B$2+$B$5)))*9.81*COS(RADIANS(G10)))/(1000*1000)</f>
         <v>0.68027282768891673</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="2"/>
-      <c r="F11" s="6">
+      <c r="E11" s="12"/>
+      <c r="F11" s="4">
         <v>500</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>-27</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="10">
         <f t="shared" ref="H11:H14" si="2">RADIANS(G11)</f>
         <v>-0.47123889803846897</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="6">
         <f t="shared" ref="I11:I14" si="3">((($B$1*(0.5*$B$2+$B$5))+(($B$3+F11)*($B$2+$B$5)))*9.81*COS(RADIANS(G11)))/(1000*1000)</f>
         <v>2.0510226196368531</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E12" s="2"/>
-      <c r="F12" s="6">
+      <c r="E12" s="12"/>
+      <c r="F12" s="4">
         <v>1000</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>-24</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="10">
         <f t="shared" si="2"/>
         <v>-0.41887902047863912</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="6">
         <f t="shared" si="3"/>
         <v>3.4807945568916687</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E13" s="2"/>
-      <c r="F13" s="6">
+      <c r="E13" s="12"/>
+      <c r="F13" s="4">
         <v>1500</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <v>-20</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="10">
         <f t="shared" si="2"/>
         <v>-0.3490658503988659</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="6">
         <f t="shared" si="3"/>
         <v>4.9977472162625771</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="2"/>
-      <c r="F14" s="6">
+      <c r="E14" s="12"/>
+      <c r="F14" s="4">
         <v>2000</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
         <v>-16</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="10">
         <f t="shared" si="2"/>
         <v>-0.27925268031909273</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="6">
         <f t="shared" si="3"/>
         <v>6.5623211593361006</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10">
+        <f>RADIANS(G16)</f>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="I16" s="6">
+        <f>((($B$1*(0.5*$B$2+$B$6))+(($B$3+F16)*($B$2+$B$5)))*9.81*COS(RADIANS(G16)))/(1000*1000)</f>
+        <v>0.83840165791544086</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E17" s="12"/>
+      <c r="F17" s="4">
+        <v>200</v>
+      </c>
+      <c r="G17" s="4">
+        <v>4</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" ref="H17:H21" si="4">RADIANS(G17)</f>
+        <v>6.9813170079773182E-2</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" ref="I17:I21" si="5">((($B$1*(0.5*$B$2+$B$6))+(($B$3+F17)*($B$2+$B$5)))*9.81*COS(RADIANS(G17)))/(1000*1000)</f>
+        <v>1.4383321095815247</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E18" s="12"/>
+      <c r="F18" s="4">
+        <v>400</v>
+      </c>
+      <c r="G18" s="4">
+        <v>7</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="4"/>
+        <v>0.12217304763960307</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="5"/>
+        <v>2.0299150621866908</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E19" s="12"/>
+      <c r="F19" s="4">
+        <v>600</v>
+      </c>
+      <c r="G19" s="4">
+        <v>10</v>
+      </c>
+      <c r="H19" s="10">
+        <f>RADIANS(G19)</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="5"/>
+        <v>2.6082380932301232</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E20" s="12"/>
+      <c r="F20" s="4">
+        <v>800</v>
+      </c>
+      <c r="G20" s="4">
+        <v>14</v>
+      </c>
+      <c r="H20" s="10">
+        <f t="shared" si="4"/>
+        <v>0.24434609527920614</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="5"/>
+        <v>3.1551973284607153</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="12"/>
+      <c r="F21" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G21" s="4">
+        <v>17</v>
+      </c>
+      <c r="H21" s="10">
+        <f t="shared" si="4"/>
+        <v>0.29670597283903605</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="5"/>
+        <v>3.6866546437648813</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>13</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E40" t="s">
         <v>14</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H40" t="s">
         <v>15</v>
       </c>
+      <c r="K40" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
         <f>((821*(629/2+12.5))+((1500+56)*(629+12.5)))*9.81/(1000*1000)</f>
         <v>12.42574821</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B45" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <f>A36/22.745</f>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <f>A45/22.745</f>
         <v>0.5463068019344911</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B46" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <f>DEGREES(A37)</f>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <f>DEGREES(A46)</f>
         <v>31.301074070135737</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B47" t="s">
         <v>18</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C47" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <f>G10+A38</f>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <f>G10+A47</f>
         <v>0.30107407013573706</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B48" t="s">
         <v>18</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C48" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E2:E8"/>
     <mergeCell ref="E10:E14"/>
+    <mergeCell ref="E16:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/Spring Calculations.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/Spring Calculations.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\Adjustable Spiral Torsion Spring\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093F5CFE-DE9F-4909-BC23-3E53E0EACEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>lever arm mass</t>
   </si>
@@ -80,21 +86,6 @@
     <t>k = 22.745 Nm/rad</t>
   </si>
   <si>
-    <t>Nm</t>
-  </si>
-  <si>
-    <t>rad</t>
-  </si>
-  <si>
-    <t>°</t>
-  </si>
-  <si>
-    <t>deflection</t>
-  </si>
-  <si>
-    <t>expection resting angle</t>
-  </si>
-  <si>
     <t>my new spring</t>
   </si>
   <si>
@@ -103,11 +94,20 @@
   <si>
     <t>k = 10.094 Nm/rad</t>
   </si>
+  <si>
+    <t>ankle spring</t>
+  </si>
+  <si>
+    <t>lever arm length ankle spring</t>
+  </si>
+  <si>
+    <t>k = 0.214 Nm/rad</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -189,6 +189,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -207,7 +217,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -221,7 +231,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -299,7 +308,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -391,7 +399,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-00FC-416A-8840-54D92E636669}"/>
             </c:ext>
@@ -455,7 +463,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -553,7 +560,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -614,14 +620,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -657,7 +663,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -671,7 +677,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -834,7 +839,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1DA0-49E2-99AF-872A1BB96A45}"/>
             </c:ext>
@@ -905,7 +910,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1024,7 +1028,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1085,14 +1088,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1128,7 +1131,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1142,7 +1145,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1319,7 +1321,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1DA0-49E2-99AF-872A1BB96A45}"/>
             </c:ext>
@@ -1390,7 +1392,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1509,7 +1510,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1570,14 +1570,440 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ankle spring</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$23:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-0.95993108859688125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.8028514559173916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.66322511575784526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.52359877559829882</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$23:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4873284941840084E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6431814098038172E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3028015861822508E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F79C-4E5D-9238-A117FEC16D2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="173636352"/>
+        <c:axId val="211296832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="173636352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Deflection (rad)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211296832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="211296832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Torque (Nm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="173636352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1618,13 +2044,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1632,7 +2058,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01BFA875-FEE6-E005-87C1-4AFA2F3BAE19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1654,13 +2080,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>2276475</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1668,7 +2094,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2977C3E8-25DA-DBE4-89F0-E5EE4D1E97CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1690,13 +2116,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1704,7 +2130,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2977C3E8-25DA-DBE4-89F0-E5EE4D1E97CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,6 +2145,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{669336F7-3A1B-4261-A024-C6BFB544DCC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2016,18 +2480,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2169,7 +2633,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -2194,6 +2658,15 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
       <c r="E7" s="11"/>
       <c r="F7" s="3">
         <v>1500</v>
@@ -2322,7 +2795,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E16" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
@@ -2424,67 +2897,150 @@
         <v>3.6866546437648813</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>-55</v>
+      </c>
+      <c r="H23" s="10">
+        <f>RADIANS(G23)</f>
+        <v>-0.95993108859688125</v>
+      </c>
+      <c r="I23" s="6">
+        <f>($B$7*F23*9.81*COS(RADIANS(G23)))/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="12"/>
+      <c r="F24" s="4">
+        <v>50</v>
+      </c>
+      <c r="G24" s="4">
+        <v>-46</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" ref="H24:H25" si="6">RADIANS(G24)</f>
+        <v>-0.8028514559173916</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" ref="I24:I26" si="7">($B$7*F24*9.81*COS(RADIANS(G24)))/(1000*1000)</f>
+        <v>2.4873284941840084E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E25" s="12"/>
+      <c r="F25" s="4">
+        <v>100</v>
+      </c>
+      <c r="G25" s="4">
+        <v>-38</v>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" si="6"/>
+        <v>-0.66322511575784526</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="7"/>
+        <v>5.6431814098038172E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E26" s="12"/>
+      <c r="F26" s="4">
+        <v>150</v>
+      </c>
+      <c r="G26" s="4">
+        <v>-30</v>
+      </c>
+      <c r="H26" s="10">
+        <f>RADIANS(G26)</f>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="7"/>
+        <v>9.3028015861822508E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="16"/>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="16"/>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>13</v>
       </c>
-      <c r="E40" t="s">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
         <v>14</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H49" t="s">
         <v>15</v>
       </c>
-      <c r="K40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <f>((821*(629/2+12.5))+((1500+56)*(629+12.5)))*9.81/(1000*1000)</f>
-        <v>12.42574821</v>
-      </c>
-      <c r="B45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <f>A45/22.745</f>
-        <v>0.5463068019344911</v>
-      </c>
-      <c r="B46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <f>DEGREES(A46)</f>
-        <v>31.301074070135737</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="K49" t="s">
         <v>18</v>
       </c>
-      <c r="C47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <f>G10+A47</f>
-        <v>0.30107407013573706</v>
-      </c>
-      <c r="B48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" t="s">
-        <v>20</v>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="E2:E8"/>
     <mergeCell ref="E10:E14"/>
     <mergeCell ref="E16:E21"/>
+    <mergeCell ref="E23:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/Spring Calculations.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/Spring Calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\Adjustable Spiral Torsion Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093F5CFE-DE9F-4909-BC23-3E53E0EACEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC558C9-3209-470E-A481-61C4FA806996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-180" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,22 +183,15 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2234,7 +2227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2286,7 +2279,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2490,8 +2483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2534,7 +2527,7 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="3">
@@ -2563,7 +2556,7 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="3">
         <v>200</v>
       </c>
@@ -2589,7 +2582,7 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="3">
         <v>500</v>
       </c>
@@ -2615,7 +2608,7 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="3">
         <v>1000</v>
       </c>
@@ -2641,7 +2634,7 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="3">
         <v>1200</v>
       </c>
@@ -2667,7 +2660,7 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="3">
         <v>1500</v>
       </c>
@@ -2684,7 +2677,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E8" s="11"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="3">
         <v>2000</v>
       </c>
@@ -2707,7 +2700,7 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="4">
@@ -2726,7 +2719,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="12"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="4">
         <v>500</v>
       </c>
@@ -2743,7 +2736,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E12" s="12"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="4">
         <v>1000</v>
       </c>
@@ -2760,7 +2753,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E13" s="12"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="4">
         <v>1500</v>
       </c>
@@ -2777,7 +2770,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="12"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="4">
         <v>2000</v>
       </c>
@@ -2794,7 +2787,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="4">
@@ -2813,7 +2806,7 @@
       </c>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E17" s="12"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="4">
         <v>200</v>
       </c>
@@ -2830,7 +2823,7 @@
       </c>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E18" s="12"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="4">
         <v>400</v>
       </c>
@@ -2847,7 +2840,7 @@
       </c>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E19" s="12"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="4">
         <v>600</v>
       </c>
@@ -2864,7 +2857,7 @@
       </c>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E20" s="12"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="4">
         <v>800</v>
       </c>
@@ -2881,7 +2874,7 @@
       </c>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E21" s="12"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="4">
         <v>1000</v>
       </c>
@@ -2898,14 +2891,14 @@
       </c>
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="16"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="4">
@@ -2924,7 +2917,7 @@
       </c>
     </row>
     <row r="24" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E24" s="12"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="4">
         <v>50</v>
       </c>
@@ -2941,7 +2934,7 @@
       </c>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E25" s="12"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="4">
         <v>100</v>
       </c>
@@ -2958,7 +2951,7 @@
       </c>
     </row>
     <row r="26" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E26" s="12"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="4">
         <v>150</v>
       </c>
@@ -2975,32 +2968,32 @@
       </c>
     </row>
     <row r="27" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="16"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E28" s="13"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="16"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E29" s="13"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="16"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="16"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="5"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">

--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/Spring Calculations.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/Spring Calculations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\Adjustable Spiral Torsion Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC558C9-3209-470E-A481-61C4FA806996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FE0016-7C60-472F-8BC2-0C1FF35D908A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-180" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1138,6 +1138,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>In House Hip Spring v2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1146,26 +1171,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1338,20 +1343,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1442,20 +1433,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2483,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/Spring Calculations.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/Spring Calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\Adjustable Spiral Torsion Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FE0016-7C60-472F-8BC2-0C1FF35D908A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1C4086-F6D5-4B25-B86C-D44E9BAC84E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-180" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2162,9 +2162,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2202,7 +2202,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2308,7 +2308,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2450,7 +2450,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2460,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
